--- a/lut_generator_E12_1K47K.xlsx
+++ b/lut_generator_E12_1K47K.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\Dokumente\codebase\avr-quantizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62588B79-EFA2-49FC-841C-DF282612891A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB57055D-4324-4158-9ABA-1B0281A44217}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8790" yWindow="0" windowWidth="36500" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
   </bookViews>
@@ -806,7 +806,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="P5" sqref="P5:P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -942,8 +942,8 @@
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="23" t="str">
-        <f>"const __flash uint"&amp;$C$8*8&amp;"_t "&amp;"lut"&amp;$C$8&amp;"d"&amp;$C$7&amp;"_"&amp;$C$6&amp;"["&amp;COUNT($J:$J)+COUNT($L:$L)&amp;"] ="&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;_xlfn.CONCAT($M:$M)&amp;CHAR(10)&amp;CHAR(10)&amp;_xlfn.CONCAT($N:$N)&amp;"};"</f>
-        <v>const __flash uint8_t lut1d2_E12_1K47K[27] =
+        <f>"const __flash uint"&amp;$C$8*8&amp;"_t "&amp;"lut"&amp;$C$8&amp;"d"&amp;$C$7&amp;"_"&amp;$C$6&amp;"["&amp;COUNT($J:$J)+1+COUNT($L:$L)&amp;"] ="&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;_xlfn.CONCAT($M:$M)&amp;CHAR(10)&amp;CHAR(10)&amp;_xlfn.CONCAT($N:$N)&amp;"};"</f>
+        <v>const __flash uint8_t lut1d2_E12_1K47K[28] =
 {
 // header
 5, 17, 20, 24, 27, 
@@ -1455,7 +1455,7 @@
       <c r="A16" s="7"/>
       <c r="B16" s="25" t="str">
         <f>$P$5</f>
-        <v>const __flash uint8_t lut1d2_E12_1K47K[27] =
+        <v>const __flash uint8_t lut1d2_E12_1K47K[28] =
 {
 // header
 5, 17, 20, 24, 27, 

--- a/lut_generator_E12_1K47K.xlsx
+++ b/lut_generator_E12_1K47K.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\Dokumente\codebase\avr-quantizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB57055D-4324-4158-9ABA-1B0281A44217}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B643D0B8-941F-4308-B6CE-E306CA0D7F29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8790" yWindow="0" windowWidth="36500" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
+    <workbookView xWindow="8790" yWindow="0" windowWidth="29610" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -942,8 +942,8 @@
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="23" t="str">
-        <f>"const __flash uint"&amp;$C$8*8&amp;"_t "&amp;"lut"&amp;$C$8&amp;"d"&amp;$C$7&amp;"_"&amp;$C$6&amp;"["&amp;COUNT($J:$J)+1+COUNT($L:$L)&amp;"] ="&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;_xlfn.CONCAT($M:$M)&amp;CHAR(10)&amp;CHAR(10)&amp;_xlfn.CONCAT($N:$N)&amp;"};"</f>
-        <v>const __flash uint8_t lut1d2_E12_1K47K[28] =
+        <f>"const __flash uint"&amp;$C$8*8&amp;"_t "&amp;"lut"&amp;$C$7*8&amp;"_"&amp;$C$6&amp;"["&amp;COUNT($J:$J)+1+COUNT($L:$L)&amp;"] ="&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;_xlfn.CONCAT($M:$M)&amp;CHAR(10)&amp;CHAR(10)&amp;_xlfn.CONCAT($N:$N)&amp;"};"</f>
+        <v>const __flash uint8_t lut16_E12_1K47K[28] =
 {
 // header
 5, 17, 20, 24, 27, 
@@ -1455,7 +1455,7 @@
       <c r="A16" s="7"/>
       <c r="B16" s="25" t="str">
         <f>$P$5</f>
-        <v>const __flash uint8_t lut1d2_E12_1K47K[28] =
+        <v>const __flash uint8_t lut16_E12_1K47K[28] =
 {
 // header
 5, 17, 20, 24, 27, 

--- a/lut_generator_E12_1K47K.xlsx
+++ b/lut_generator_E12_1K47K.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\Dokumente\codebase\avr-quantizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B643D0B8-941F-4308-B6CE-E306CA0D7F29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E97E24-3BF8-4282-94C5-CB02F9229F4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8790" yWindow="0" windowWidth="29610" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
   </bookViews>
@@ -806,7 +806,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:P43"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -937,8 +937,8 @@
         <v xml:space="preserve">5, </v>
       </c>
       <c r="N5" s="19" t="str">
-        <f>IF(J5&lt;&gt;"",J5&amp;", "&amp;IF($H5&lt;&gt;$H6,CHAR(10),""),256^$C$8-1&amp;CHAR(10))</f>
-        <v xml:space="preserve">28, </v>
+        <f>IF(J5&lt;&gt;"",J5-1&amp;", "&amp;IF($H5&lt;&gt;$H6,CHAR(10),""),256^$C$8-1&amp;CHAR(10))</f>
+        <v xml:space="preserve">27, </v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="23" t="str">
@@ -948,10 +948,10 @@
 // header
 5, 17, 20, 24, 27, 
 // data
-28, 34, 42, 52, 63, 77, 94, 113, 134, 161, 194, 234, 
-142, 172, 211, 
-129, 156, 191, 234, 
-141, 168, 201, 
+27, 33, 41, 51, 62, 76, 93, 112, 133, 160, 193, 233, 
+141, 171, 210, 
+128, 155, 190, 233, 
+140, 167, 200, 
 255
 };</v>
       </c>
@@ -1001,8 +1001,8 @@
         <v/>
       </c>
       <c r="N6" s="19" t="str">
-        <f t="shared" ref="N6:N26" si="7">IF(J6&lt;&gt;"",J6&amp;", "&amp;IF($H6&lt;&gt;$H7,CHAR(10),""),256^$C$8-1&amp;CHAR(10))</f>
-        <v xml:space="preserve">34, </v>
+        <f t="shared" ref="N6:N27" si="7">IF(J6&lt;&gt;"",J6-1&amp;", "&amp;IF($H6&lt;&gt;$H7,CHAR(10),""),256^$C$8-1&amp;CHAR(10))</f>
+        <v xml:space="preserve">33, </v>
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="24"/>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="N7" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">42, </v>
+        <v xml:space="preserve">41, </v>
       </c>
       <c r="O7" s="19"/>
       <c r="P7" s="24"/>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="N8" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">52, </v>
+        <v xml:space="preserve">51, </v>
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="24"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="N9" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">63, </v>
+        <v xml:space="preserve">62, </v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="24"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="N10" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">77, </v>
+        <v xml:space="preserve">76, </v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="24"/>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">94, </v>
+        <v xml:space="preserve">93, </v>
       </c>
       <c r="O11" s="19"/>
       <c r="P11" s="24"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="N12" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">113, </v>
+        <v xml:space="preserve">112, </v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="24"/>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="N13" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">134, </v>
+        <v xml:space="preserve">133, </v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="24"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="N14" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">161, </v>
+        <v xml:space="preserve">160, </v>
       </c>
       <c r="O14" s="19"/>
       <c r="P14" s="24"/>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="N15" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">194, </v>
+        <v xml:space="preserve">193, </v>
       </c>
       <c r="O15" s="19"/>
       <c r="P15" s="24"/>
@@ -1460,10 +1460,10 @@
 // header
 5, 17, 20, 24, 27, 
 // data
-28, 34, 42, 52, 63, 77, 94, 113, 134, 161, 194, 234, 
-142, 172, 211, 
-129, 156, 191, 234, 
-141, 168, 201, 
+27, 33, 41, 51, 62, 76, 93, 112, 133, 160, 193, 233, 
+141, 171, 210, 
+128, 155, 190, 233, 
+140, 167, 200, 
 255
 };</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="N16" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">234, 
+        <v xml:space="preserve">233, 
 </v>
       </c>
       <c r="O16" s="19"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="N17" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">142, </v>
+        <v xml:space="preserve">141, </v>
       </c>
       <c r="O17" s="19"/>
       <c r="P17" s="24"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="N18" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">172, </v>
+        <v xml:space="preserve">171, </v>
       </c>
       <c r="O18" s="19"/>
       <c r="P18" s="24"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="N19" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">211, 
+        <v xml:space="preserve">210, 
 </v>
       </c>
       <c r="O19" s="19"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="N20" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">129, </v>
+        <v xml:space="preserve">128, </v>
       </c>
       <c r="O20" s="19"/>
       <c r="P20" s="24"/>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="N21" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">156, </v>
+        <v xml:space="preserve">155, </v>
       </c>
       <c r="O21" s="19"/>
       <c r="P21" s="24"/>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="N22" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">191, </v>
+        <v xml:space="preserve">190, </v>
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="24"/>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="N23" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">234, 
+        <v xml:space="preserve">233, 
 </v>
       </c>
       <c r="O23" s="19"/>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="N24" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">141, </v>
+        <v xml:space="preserve">140, </v>
       </c>
       <c r="O24" s="19"/>
       <c r="P24" s="24"/>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">168, </v>
+        <v xml:space="preserve">167, </v>
       </c>
       <c r="O25" s="19"/>
       <c r="P25" s="24"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="N26" s="19" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">201, 
+        <v xml:space="preserve">200, 
 </v>
       </c>
       <c r="O26" s="19"/>
@@ -2008,7 +2008,7 @@
         <v xml:space="preserve">27, </v>
       </c>
       <c r="N27" s="19" t="str">
-        <f>IF(J27&lt;&gt;"",J27&amp;", "&amp;IF($H27&lt;&gt;#REF!,CHAR(10),""),256^$C$8-1&amp;CHAR(10))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">255
 </v>
       </c>

--- a/lut_generator_E12_1K47K.xlsx
+++ b/lut_generator_E12_1K47K.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shared\Dokumente\codebase\avr-quantizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E97E24-3BF8-4282-94C5-CB02F9229F4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38021CF-310B-4E92-A5FC-4D73F96C8477}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8790" yWindow="0" windowWidth="29610" windowHeight="18320" xr2:uid="{F31E432E-1247-4F18-8B99-AC2EE1672703}"/>
   </bookViews>
@@ -806,7 +806,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
